--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.027778333333333</v>
+        <v>3.235341333333333</v>
       </c>
       <c r="H2">
-        <v>3.083335</v>
+        <v>9.706023999999999</v>
       </c>
       <c r="I2">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="J2">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.44960333333333</v>
+        <v>2.198890666666667</v>
       </c>
       <c r="N2">
-        <v>43.34881</v>
+        <v>6.596672</v>
       </c>
       <c r="O2">
-        <v>0.4336357442982187</v>
+        <v>0.104354912045016</v>
       </c>
       <c r="P2">
-        <v>0.4336357442982187</v>
+        <v>0.104354912045016</v>
       </c>
       <c r="Q2">
-        <v>14.85098923126111</v>
+        <v>7.114161861347555</v>
       </c>
       <c r="R2">
-        <v>133.65890308135</v>
+        <v>64.02745675212799</v>
       </c>
       <c r="S2">
-        <v>0.0347796154200516</v>
+        <v>0.02247527695649215</v>
       </c>
       <c r="T2">
-        <v>0.0347796154200516</v>
+        <v>0.02247527695649215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.027778333333333</v>
+        <v>3.235341333333333</v>
       </c>
       <c r="H3">
-        <v>3.083335</v>
+        <v>9.706023999999999</v>
       </c>
       <c r="I3">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="J3">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>44.89017</v>
       </c>
       <c r="O3">
-        <v>0.4490545941082019</v>
+        <v>0.7101322821622501</v>
       </c>
       <c r="P3">
-        <v>0.4490545941082019</v>
+        <v>0.7101322821622501</v>
       </c>
       <c r="Q3">
-        <v>15.37904803521666</v>
+        <v>48.41167415378666</v>
       </c>
       <c r="R3">
-        <v>138.41143231695</v>
+        <v>435.7050673840799</v>
       </c>
       <c r="S3">
-        <v>0.03601627931056788</v>
+        <v>0.1529436363326864</v>
       </c>
       <c r="T3">
-        <v>0.03601627931056788</v>
+        <v>0.1529436363326864</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.027778333333333</v>
+        <v>3.235341333333333</v>
       </c>
       <c r="H4">
-        <v>3.083335</v>
+        <v>9.706023999999999</v>
       </c>
       <c r="I4">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="J4">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.726972</v>
       </c>
       <c r="O4">
-        <v>0.1173096615935794</v>
+        <v>0.1855128057927339</v>
       </c>
       <c r="P4">
-        <v>0.1173096615935794</v>
+        <v>0.1855128057927339</v>
       </c>
       <c r="Q4">
-        <v>4.017575912402222</v>
+        <v>12.64691907548089</v>
       </c>
       <c r="R4">
-        <v>36.15818321162</v>
+        <v>113.822271679328</v>
       </c>
       <c r="S4">
-        <v>0.009408783682913403</v>
+        <v>0.03995453215818955</v>
       </c>
       <c r="T4">
-        <v>0.009408783682913403</v>
+        <v>0.03995453215818956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>21.820535</v>
       </c>
       <c r="I5">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="J5">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.44960333333333</v>
+        <v>2.198890666666667</v>
       </c>
       <c r="N5">
-        <v>43.34881</v>
+        <v>6.596672</v>
       </c>
       <c r="O5">
-        <v>0.4336357442982187</v>
+        <v>0.104354912045016</v>
       </c>
       <c r="P5">
-        <v>0.4336357442982187</v>
+        <v>0.104354912045016</v>
       </c>
       <c r="Q5">
-        <v>105.0993584237056</v>
+        <v>15.99365691772445</v>
       </c>
       <c r="R5">
-        <v>945.89422581335</v>
+        <v>143.94291225952</v>
       </c>
       <c r="S5">
-        <v>0.2461327801097759</v>
+        <v>0.05052764834126008</v>
       </c>
       <c r="T5">
-        <v>0.2461327801097759</v>
+        <v>0.05052764834126007</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>21.820535</v>
       </c>
       <c r="I6">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="J6">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>44.89017</v>
       </c>
       <c r="O6">
-        <v>0.4490545941082019</v>
+        <v>0.7101322821622501</v>
       </c>
       <c r="P6">
-        <v>0.4490545941082019</v>
+        <v>0.7101322821622501</v>
       </c>
       <c r="Q6">
         <v>108.8363917378833</v>
@@ -818,10 +818,10 @@
         <v>979.5275256409499</v>
       </c>
       <c r="S6">
-        <v>0.2548845595000291</v>
+        <v>0.3438392455679746</v>
       </c>
       <c r="T6">
-        <v>0.2548845595000291</v>
+        <v>0.3438392455679746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>21.820535</v>
       </c>
       <c r="I7">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="J7">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.726972</v>
       </c>
       <c r="O7">
-        <v>0.1173096615935794</v>
+        <v>0.1855128057927339</v>
       </c>
       <c r="P7">
-        <v>0.1173096615935794</v>
+        <v>0.1855128057927339</v>
       </c>
       <c r="Q7">
         <v>28.43208921889111</v>
@@ -880,10 +880,10 @@
         <v>255.88880297002</v>
       </c>
       <c r="S7">
-        <v>0.066585270059997</v>
+        <v>0.08982352272840051</v>
       </c>
       <c r="T7">
-        <v>0.066585270059997</v>
+        <v>0.08982352272840051</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>13.539461</v>
       </c>
       <c r="I8">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="J8">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.44960333333333</v>
+        <v>2.198890666666667</v>
       </c>
       <c r="N8">
-        <v>43.34881</v>
+        <v>6.596672</v>
       </c>
       <c r="O8">
-        <v>0.4336357442982187</v>
+        <v>0.104354912045016</v>
       </c>
       <c r="P8">
-        <v>0.4336357442982187</v>
+        <v>0.104354912045016</v>
       </c>
       <c r="Q8">
-        <v>65.21328026571223</v>
+        <v>9.923931474865778</v>
       </c>
       <c r="R8">
-        <v>586.9195223914101</v>
+        <v>89.31538327379199</v>
       </c>
       <c r="S8">
-        <v>0.1527233487683912</v>
+        <v>0.03135198674726378</v>
       </c>
       <c r="T8">
-        <v>0.1527233487683912</v>
+        <v>0.03135198674726378</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>13.539461</v>
       </c>
       <c r="I9">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="J9">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>44.89017</v>
       </c>
       <c r="O9">
-        <v>0.4490545941082019</v>
+        <v>0.7101322821622501</v>
       </c>
       <c r="P9">
-        <v>0.4490545941082019</v>
+        <v>0.7101322821622501</v>
       </c>
       <c r="Q9">
         <v>67.53207844426333</v>
       </c>
       <c r="R9">
-        <v>607.78870599837</v>
+        <v>607.7887059983699</v>
       </c>
       <c r="S9">
-        <v>0.1581537552976049</v>
+        <v>0.2133494002615892</v>
       </c>
       <c r="T9">
-        <v>0.1581537552976049</v>
+        <v>0.2133494002615892</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>13.539461</v>
       </c>
       <c r="I10">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="J10">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.726972</v>
       </c>
       <c r="O10">
-        <v>0.1173096615935794</v>
+        <v>0.1855128057927339</v>
       </c>
       <c r="P10">
-        <v>0.1173096615935794</v>
+        <v>0.1855128057927339</v>
       </c>
       <c r="Q10">
         <v>17.64187556023244</v>
@@ -1066,10 +1066,10 @@
         <v>158.776880042092</v>
       </c>
       <c r="S10">
-        <v>0.04131560785066898</v>
+        <v>0.05573475090614379</v>
       </c>
       <c r="T10">
-        <v>0.04131560785066898</v>
+        <v>0.05573475090614379</v>
       </c>
     </row>
   </sheetData>
